--- a/biology/Zoologie/Bavayia_cyclura/Bavayia_cyclura.xlsx
+++ b/biology/Zoologie/Bavayia_cyclura/Bavayia_cyclura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bavayia cyclura est une espèce de geckos de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bavayia cyclura est une espèce de geckos de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre dans les environs du mont Panié.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre dans les environs du mont Panié.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne relativement trapu, le corps est marron-orangé, avec des bandes irrégulières marron-beige bordées de marron-ocre sombre.
 </t>
@@ -573,7 +589,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko a été représenté sur un timbre poste de Nouvelle-Calédonie faisant partie d'une série de quatre sujets illustrant des geckos et consacrée au programme Forêt sèche de 30 francs pacifiques du 9 octobre 2003.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1872 : On some new species of reptiles and fishes collected by J. Brenchley, Esq. Annals and Magazine of Natural History, ser. 4, vol. 10, n. 60, p. 418–426 (texte intégral).</t>
         </is>
